--- a/Proyecto_final/Insumos/base_menus.xlsx
+++ b/Proyecto_final/Insumos/base_menus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovejo\Documents\Universidad-Daniel\Udea\Logica_y_representacion1\Trabajo-Logica---Aerolinea\Proyecto_final\Insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F499E5CA-9FEE-4D96-99B1-2CA1C6B79C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392FB75D-FC76-4E7A-B9A5-7E5F6199DDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10272" yWindow="3360" windowWidth="12084" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Avion" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="14">
   <si>
     <t>Ingresar a los procesos de gestión de Avión</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>num_opcion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limpiar el hangar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar avión </t>
+  </si>
+  <si>
+    <t>Empleado</t>
   </si>
 </sst>
 </file>
@@ -419,7 +428,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,7 +527,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C902849-0741-4294-9EC2-1C7F60027ED0}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -547,7 +558,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -555,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -615,7 +626,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580CC3AB-6BBE-40CA-9FFC-AAFEF85AC2AB}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -636,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -644,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -652,7 +665,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -660,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -668,7 +681,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -676,7 +689,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -684,7 +697,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -692,7 +705,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -700,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -809,7 +822,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033EE80B-7FA2-441C-AEFE-4D1AAE459741}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1104,7 +1119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3850D661-DEA3-4778-A494-308AE5DC8ED9}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/Proyecto_final/Insumos/base_menus.xlsx
+++ b/Proyecto_final/Insumos/base_menus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovejo\Documents\Universidad-Daniel\Udea\Logica_y_representacion1\Trabajo-Logica---Aerolinea\Proyecto_final\Insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392FB75D-FC76-4E7A-B9A5-7E5F6199DDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9FCA16-E41E-4DEC-BB00-14D6E5B3CD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10272" yWindow="3360" windowWidth="12084" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Avion" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
   <si>
     <t>Ingresar a los procesos de gestión de Avión</t>
   </si>
@@ -67,13 +67,22 @@
     <t>num_opcion</t>
   </si>
   <si>
-    <t xml:space="preserve">Limpiar el hangar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agregar avión </t>
-  </si>
-  <si>
     <t>Empleado</t>
+  </si>
+  <si>
+    <t>Contar los pasajeros</t>
+  </si>
+  <si>
+    <t>Actualizar horas de vuelo</t>
+  </si>
+  <si>
+    <t>Reporte general del hangar</t>
+  </si>
+  <si>
+    <t>Consultar aviones por atributos</t>
+  </si>
+  <si>
+    <t>Reporte por tipos de avion</t>
   </si>
 </sst>
 </file>
@@ -425,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -487,33 +496,9 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -525,10 +510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C902849-0741-4294-9EC2-1C7F60027ED0}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -558,7 +543,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -566,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -587,33 +572,9 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -624,10 +585,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580CC3AB-6BBE-40CA-9FFC-AAFEF85AC2AB}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -657,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -665,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -673,7 +634,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -681,39 +642,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1120,7 +1057,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1142,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1185,7 +1122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>

--- a/Proyecto_final/Insumos/base_menus.xlsx
+++ b/Proyecto_final/Insumos/base_menus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovejo\Documents\Universidad-Daniel\Udea\Logica_y_representacion1\Trabajo-Logica---Aerolinea\Proyecto_final\Insumos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67d5a1dced8d44fe/Documentos/Dirtrab/Trabajo-Logica---Aerolinea/Proyecto_final/Insumos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308B1C46-15F8-4E88-BB4F-CAD8045DDC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{308B1C46-15F8-4E88-BB4F-CAD8045DDC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4239BFC-B327-4DDD-BB86-DB47B8438472}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Avion" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>num_opcion</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Eli</t>
   </si>
   <si>
-    <t>Empleado</t>
-  </si>
-  <si>
     <t>Reporte general del hangar</t>
   </si>
   <si>
@@ -117,6 +114,21 @@
   </si>
   <si>
     <t>Actualizar datos pasajero</t>
+  </si>
+  <si>
+    <t>Nuevo empleado</t>
+  </si>
+  <si>
+    <t>Actualizar informacion del empleado</t>
+  </si>
+  <si>
+    <t>Actualizar el estado del empleado</t>
+  </si>
+  <si>
+    <t>Verificar disponibilidad para el vuelo</t>
+  </si>
+  <si>
+    <t>Informacion del empleado</t>
   </si>
 </sst>
 </file>
@@ -212,6 +224,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -583,7 +599,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -613,7 +629,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -621,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -629,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -637,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -645,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -653,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -676,7 +692,9 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -697,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -705,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -713,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -721,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -729,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -737,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -775,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -783,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -791,7 +809,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1122,7 +1140,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1145,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1153,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1161,7 +1179,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/Proyecto_final/Insumos/base_menus.xlsx
+++ b/Proyecto_final/Insumos/base_menus.xlsx
@@ -1,33 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovejo\Documents\Universidad-Daniel\Udea\Logica_y_representacion1\Trabajo-Logica---Aerolinea\Proyecto_final\Insumos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308B1C46-15F8-4E88-BB4F-CAD8045DDC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Avion" sheetId="1" r:id="rId1"/>
-    <sheet name="Hangar" sheetId="2" r:id="rId2"/>
-    <sheet name="Empleado" sheetId="3" r:id="rId3"/>
-    <sheet name="Tripulacion" sheetId="4" r:id="rId4"/>
-    <sheet name="Mantenimiento" sheetId="5" r:id="rId5"/>
-    <sheet name="Servicios" sheetId="6" r:id="rId6"/>
-    <sheet name="Vuelo" sheetId="7" r:id="rId7"/>
-    <sheet name="Pasajeros" sheetId="8" r:id="rId8"/>
+    <sheet r:id="rId1" sheetId="1" name="Avion"/>
+    <sheet r:id="rId2" sheetId="2" name="Hangar"/>
+    <sheet r:id="rId3" sheetId="3" name="Empleado"/>
+    <sheet r:id="rId4" sheetId="4" name="Tripulacion"/>
+    <sheet r:id="rId5" sheetId="5" name="Mantenimiento"/>
+    <sheet r:id="rId6" sheetId="6" name="Servicios"/>
+    <sheet r:id="rId7" sheetId="7" name="Vuelo"/>
+    <sheet r:id="rId8" sheetId="8" name="Pasajeros"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>num_opcion</t>
   </si>
@@ -35,6 +29,51 @@
     <t>opciones</t>
   </si>
   <si>
+    <t>Leer info pasajeros</t>
+  </si>
+  <si>
+    <t>Agregar info pasajero</t>
+  </si>
+  <si>
+    <t>Actualizar datos pasajero</t>
+  </si>
+  <si>
+    <t>Regresar al menu principal</t>
+  </si>
+  <si>
+    <t>Peso total equipaje</t>
+  </si>
+  <si>
+    <t>Agregar pasajero</t>
+  </si>
+  <si>
+    <t>Lista de pasajeros</t>
+  </si>
+  <si>
+    <t>Asignar avion</t>
+  </si>
+  <si>
+    <t>Verificar disponibilidad</t>
+  </si>
+  <si>
+    <t>Calcular costo total</t>
+  </si>
+  <si>
+    <t>Verificar servicio</t>
+  </si>
+  <si>
+    <t>Asignar servicio</t>
+  </si>
+  <si>
+    <t>Eliminar servicio</t>
+  </si>
+  <si>
+    <t>Generar reporte</t>
+  </si>
+  <si>
+    <t>Ingresar a los procesos de gestión de Avión</t>
+  </si>
+  <si>
     <t>Ingresar a los procesos de gestión de Hangar</t>
   </si>
   <si>
@@ -56,22 +95,13 @@
     <t>Ingresar a los procesos de gestión de Pasajero</t>
   </si>
   <si>
-    <t>Regresar al menu principal</t>
-  </si>
-  <si>
-    <t>Ingresar a los procesos de gestión de Avión</t>
-  </si>
-  <si>
-    <t>Calcular costo total</t>
-  </si>
-  <si>
-    <t>Verificar servicio</t>
-  </si>
-  <si>
-    <t>Asignar servicio</t>
-  </si>
-  <si>
-    <t>Eli</t>
+    <t>Agregar tripulación</t>
+  </si>
+  <si>
+    <t>Listar tripulaciones</t>
+  </si>
+  <si>
+    <t>Actualizar miembro tripulación</t>
   </si>
   <si>
     <t>Empleado</t>
@@ -86,43 +116,26 @@
     <t>Reporte por tipos de avion</t>
   </si>
   <si>
+    <t>Agregar aviób al hangar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depurar / Actualizar Hangar </t>
+  </si>
+  <si>
+    <t>Eliminar Avion Hangar</t>
+  </si>
+  <si>
+    <t>Exportar Hangar Actualizado</t>
+  </si>
+  <si>
     <t>Actualizar horas de vuelo</t>
-  </si>
-  <si>
-    <t>Listar tripulaciones</t>
-  </si>
-  <si>
-    <t>Agregar tripulación</t>
-  </si>
-  <si>
-    <t>Actualizar miembro tripulación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depurar / Actualizar Hangar </t>
-  </si>
-  <si>
-    <t>Agregar aviób al hangar</t>
-  </si>
-  <si>
-    <t>Eliminar Avion Hangar</t>
-  </si>
-  <si>
-    <t>Exportar Hangar Actualizado</t>
-  </si>
-  <si>
-    <t>Leer info pasajeros</t>
-  </si>
-  <si>
-    <t>Agregar info pasajero</t>
-  </si>
-  <si>
-    <t>Actualizar datos pasajero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,7 +153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -180,35 +193,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -219,10 +232,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -260,71 +273,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -352,7 +365,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -375,11 +388,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -388,13 +401,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -404,7 +417,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -413,7 +426,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -422,7 +435,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -430,10 +443,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -498,179 +511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>0</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -678,13 +519,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="44.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,52 +533,220 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="44.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="44.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -746,23 +755,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="44.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,44 +777,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -816,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -824,13 +831,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="44.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,76 +845,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3">
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -916,21 +923,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="44.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -938,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -946,7 +953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -954,7 +961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -962,7 +969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -970,44 +977,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1016,21 +999,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="44.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,76 +1021,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1116,23 +1075,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="44.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1140,36 +1097,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto_final/Insumos/base_menus.xlsx
+++ b/Proyecto_final/Insumos/base_menus.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\OneDrive\Escritorio\UdeA\Lógica y Representación l G4\Trabajo-Logica---Aerolinea\Proyecto_final\Insumos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9B98CE-DB26-4AF1-BD7F-B68BD956F87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="5"/>
+    <workbookView xWindow="14535" yWindow="1725" windowWidth="28800" windowHeight="11235" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Avion"/>
-    <sheet r:id="rId2" sheetId="2" name="Hangar"/>
-    <sheet r:id="rId3" sheetId="3" name="Empleado"/>
-    <sheet r:id="rId4" sheetId="4" name="Tripulacion"/>
-    <sheet r:id="rId5" sheetId="5" name="Mantenimiento"/>
-    <sheet r:id="rId6" sheetId="6" name="Servicios"/>
-    <sheet r:id="rId7" sheetId="7" name="Vuelo"/>
-    <sheet r:id="rId8" sheetId="8" name="Pasajeros"/>
+    <sheet name="Avion" sheetId="1" r:id="rId1"/>
+    <sheet name="Hangar" sheetId="2" r:id="rId2"/>
+    <sheet name="Empleado" sheetId="3" r:id="rId3"/>
+    <sheet name="Tripulacion" sheetId="4" r:id="rId4"/>
+    <sheet name="Mantenimiento" sheetId="5" r:id="rId5"/>
+    <sheet name="Servicios" sheetId="6" r:id="rId6"/>
+    <sheet name="Vuelo" sheetId="7" r:id="rId7"/>
+    <sheet name="Pasajeros" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>num_opcion</t>
   </si>
@@ -29,6 +35,75 @@
     <t>opciones</t>
   </si>
   <si>
+    <t>Ingresar a los procesos de gestión de Hangar</t>
+  </si>
+  <si>
+    <t>Ingresar a los procesos de gestión de Empleado</t>
+  </si>
+  <si>
+    <t>Ingresar a los procesos de gestión de Tripulación</t>
+  </si>
+  <si>
+    <t>Ingresar a los procesos de gestión de Mantenimiento</t>
+  </si>
+  <si>
+    <t>Ingresar a los procesos de gestión de Servicios</t>
+  </si>
+  <si>
+    <t>Ingresar a los procesos de gestión de Vuelo</t>
+  </si>
+  <si>
+    <t>Ingresar a los procesos de gestión de Pasajero</t>
+  </si>
+  <si>
+    <t>Regresar al menu principal</t>
+  </si>
+  <si>
+    <t>Ingresar a los procesos de gestión de Avión</t>
+  </si>
+  <si>
+    <t>Calcular costo total</t>
+  </si>
+  <si>
+    <t>Verificar servicio</t>
+  </si>
+  <si>
+    <t>Asignar servicio</t>
+  </si>
+  <si>
+    <t>Reporte general del hangar</t>
+  </si>
+  <si>
+    <t>Consultar aviones por atributos</t>
+  </si>
+  <si>
+    <t>Reporte por tipos de avion</t>
+  </si>
+  <si>
+    <t>Actualizar horas de vuelo</t>
+  </si>
+  <si>
+    <t>Listar tripulaciones</t>
+  </si>
+  <si>
+    <t>Agregar tripulación</t>
+  </si>
+  <si>
+    <t>Actualizar miembro tripulación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depurar / Actualizar Hangar </t>
+  </si>
+  <si>
+    <t>Agregar aviób al hangar</t>
+  </si>
+  <si>
+    <t>Eliminar Avion Hangar</t>
+  </si>
+  <si>
+    <t>Exportar Hangar Actualizado</t>
+  </si>
+  <si>
     <t>Leer info pasajeros</t>
   </si>
   <si>
@@ -38,7 +113,25 @@
     <t>Actualizar datos pasajero</t>
   </si>
   <si>
-    <t>Regresar al menu principal</t>
+    <t>Nuevo empleado</t>
+  </si>
+  <si>
+    <t>Actualizar informacion del empleado</t>
+  </si>
+  <si>
+    <t>Actualizar el estado del empleado</t>
+  </si>
+  <si>
+    <t>Verificar disponibilidad para el vuelo</t>
+  </si>
+  <si>
+    <t>Informacion del empleado</t>
+  </si>
+  <si>
+    <t>Eliminar servicio</t>
+  </si>
+  <si>
+    <t>Generar reporte</t>
   </si>
   <si>
     <t>Peso total equipaje</t>
@@ -54,89 +147,13 @@
   </si>
   <si>
     <t>Verificar disponibilidad</t>
-  </si>
-  <si>
-    <t>Calcular costo total</t>
-  </si>
-  <si>
-    <t>Verificar servicio</t>
-  </si>
-  <si>
-    <t>Asignar servicio</t>
-  </si>
-  <si>
-    <t>Eliminar servicio</t>
-  </si>
-  <si>
-    <t>Generar reporte</t>
-  </si>
-  <si>
-    <t>Ingresar a los procesos de gestión de Avión</t>
-  </si>
-  <si>
-    <t>Ingresar a los procesos de gestión de Hangar</t>
-  </si>
-  <si>
-    <t>Ingresar a los procesos de gestión de Empleado</t>
-  </si>
-  <si>
-    <t>Ingresar a los procesos de gestión de Tripulación</t>
-  </si>
-  <si>
-    <t>Ingresar a los procesos de gestión de Mantenimiento</t>
-  </si>
-  <si>
-    <t>Ingresar a los procesos de gestión de Servicios</t>
-  </si>
-  <si>
-    <t>Ingresar a los procesos de gestión de Vuelo</t>
-  </si>
-  <si>
-    <t>Ingresar a los procesos de gestión de Pasajero</t>
-  </si>
-  <si>
-    <t>Agregar tripulación</t>
-  </si>
-  <si>
-    <t>Listar tripulaciones</t>
-  </si>
-  <si>
-    <t>Actualizar miembro tripulación</t>
-  </si>
-  <si>
-    <t>Empleado</t>
-  </si>
-  <si>
-    <t>Reporte general del hangar</t>
-  </si>
-  <si>
-    <t>Consultar aviones por atributos</t>
-  </si>
-  <si>
-    <t>Reporte por tipos de avion</t>
-  </si>
-  <si>
-    <t>Agregar aviób al hangar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depurar / Actualizar Hangar </t>
-  </si>
-  <si>
-    <t>Eliminar Avion Hangar</t>
-  </si>
-  <si>
-    <t>Exportar Hangar Actualizado</t>
-  </si>
-  <si>
-    <t>Actualizar horas de vuelo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +165,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -193,35 +216,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -232,10 +261,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -273,71 +302,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,7 +394,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -388,11 +417,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -401,13 +430,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -417,7 +446,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -426,7 +455,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -435,7 +464,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -443,10 +472,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -511,21 +540,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="44.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,52 +564,52 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -587,21 +618,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="44.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,68 +642,68 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -679,21 +712,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E20" sqref="E19:E20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="44.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,52 +736,52 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -755,21 +790,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="44.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,44 +814,44 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -823,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -831,13 +868,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="44.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,76 +882,76 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -923,21 +960,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="44.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -945,52 +984,52 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3">
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3">
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3">
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
-      <c r="A7" s="3">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
+      <c r="B6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -999,21 +1038,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="44.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1021,52 +1062,52 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1075,21 +1116,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="44.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,36 +1140,36 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
